--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H2">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I2">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J2">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N2">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O2">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P2">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q2">
-        <v>11.35108241778695</v>
+        <v>13.757467306544</v>
       </c>
       <c r="R2">
-        <v>11.35108241778695</v>
+        <v>123.817205758896</v>
       </c>
       <c r="S2">
-        <v>0.1939984958538963</v>
+        <v>0.2003172641883189</v>
       </c>
       <c r="T2">
-        <v>0.1939984958538963</v>
+        <v>0.2505997806734809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H3">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I3">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J3">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N3">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P3">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q3">
-        <v>0.5274347970259599</v>
+        <v>0.619109685688</v>
       </c>
       <c r="R3">
-        <v>0.5274347970259599</v>
+        <v>5.571987171192</v>
       </c>
       <c r="S3">
-        <v>0.00901425551484898</v>
+        <v>0.009014621347529461</v>
       </c>
       <c r="T3">
-        <v>0.00901425551484898</v>
+        <v>0.01127742105354239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H4">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I4">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J4">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N4">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O4">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P4">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q4">
-        <v>0.1961395324784185</v>
+        <v>0.414946220624</v>
       </c>
       <c r="R4">
-        <v>0.1961395324784185</v>
+        <v>3.734515985616</v>
       </c>
       <c r="S4">
-        <v>0.003352171438617583</v>
+        <v>0.00604187455790967</v>
       </c>
       <c r="T4">
-        <v>0.003352171438617583</v>
+        <v>0.007558472032872035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H5">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I5">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J5">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N5">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O5">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P5">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q5">
-        <v>0.6423691013103087</v>
+        <v>1.087396318736</v>
       </c>
       <c r="R5">
-        <v>0.6423691013103087</v>
+        <v>9.786566868624</v>
       </c>
       <c r="S5">
-        <v>0.01097856881401405</v>
+        <v>0.01583316542239083</v>
       </c>
       <c r="T5">
-        <v>0.01097856881401405</v>
+        <v>0.01980751783075448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H6">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I6">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J6">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N6">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O6">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P6">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q6">
-        <v>13.16734345964159</v>
+        <v>15.889097160222</v>
       </c>
       <c r="R6">
-        <v>13.16734345964159</v>
+        <v>95.334582961332</v>
       </c>
       <c r="S6">
-        <v>0.2250397566983865</v>
+        <v>0.2313551181069549</v>
       </c>
       <c r="T6">
-        <v>0.2250397566983865</v>
+        <v>0.1929523884364598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H7">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J7">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N7">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O7">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P7">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q7">
-        <v>10.97246861555791</v>
+        <v>12.35142096890978</v>
       </c>
       <c r="R7">
-        <v>10.97246861555791</v>
+        <v>111.162788720188</v>
       </c>
       <c r="S7">
-        <v>0.1875277025463909</v>
+        <v>0.1798443566828133</v>
       </c>
       <c r="T7">
-        <v>0.1875277025463909</v>
+        <v>0.2249878787167681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H8">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J8">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N8">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P8">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q8">
-        <v>0.5098422814772239</v>
+        <v>0.5558351827028889</v>
       </c>
       <c r="R8">
-        <v>0.5098422814772239</v>
+        <v>5.002516644326</v>
       </c>
       <c r="S8">
-        <v>0.008713586254497818</v>
+        <v>0.008093305305235544</v>
       </c>
       <c r="T8">
-        <v>0.008713586254497818</v>
+        <v>0.01012484142409636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H9">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J9">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N9">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O9">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P9">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q9">
-        <v>0.1895973251870051</v>
+        <v>0.3725377161497778</v>
       </c>
       <c r="R9">
-        <v>0.1895973251870051</v>
+        <v>3.352839445348</v>
       </c>
       <c r="S9">
-        <v>0.003240360218560734</v>
+        <v>0.005424380406892979</v>
       </c>
       <c r="T9">
-        <v>0.003240360218560734</v>
+        <v>0.006785977962333687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H10">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I10">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J10">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N10">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O10">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P10">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q10">
-        <v>0.6209429677549358</v>
+        <v>0.9762617924857777</v>
       </c>
       <c r="R10">
-        <v>0.6209429677549358</v>
+        <v>8.786356132371999</v>
       </c>
       <c r="S10">
-        <v>0.0106123801521122</v>
+        <v>0.01421497773135267</v>
       </c>
       <c r="T10">
-        <v>0.0106123801521122</v>
+        <v>0.01778314173862963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H11">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I11">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J11">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N11">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O11">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P11">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q11">
-        <v>12.7281485186641</v>
+        <v>14.26519311068683</v>
       </c>
       <c r="R11">
-        <v>12.7281485186641</v>
+        <v>85.591158664121</v>
       </c>
       <c r="S11">
-        <v>0.2175335863790905</v>
+        <v>0.2077100670769239</v>
       </c>
       <c r="T11">
-        <v>0.2175335863790905</v>
+        <v>0.1732321889946765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H12">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I12">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J12">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N12">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O12">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P12">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q12">
-        <v>3.335382619545543</v>
+        <v>3.63299715636</v>
       </c>
       <c r="R12">
-        <v>3.335382619545543</v>
+        <v>21.79798293816</v>
       </c>
       <c r="S12">
-        <v>0.05700418581008039</v>
+        <v>0.05289869384750843</v>
       </c>
       <c r="T12">
-        <v>0.05700418581008039</v>
+        <v>0.04411801825074461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H13">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I13">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J13">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N13">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P13">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q13">
-        <v>0.1549805375553689</v>
+        <v>0.16349111922</v>
       </c>
       <c r="R13">
-        <v>0.1549805375553689</v>
+        <v>0.9809467153199999</v>
       </c>
       <c r="S13">
-        <v>0.002648733404072281</v>
+        <v>0.002380532186012063</v>
       </c>
       <c r="T13">
-        <v>0.002648733404072281</v>
+        <v>0.001985386685193398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H14">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I14">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J14">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N14">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O14">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P14">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q14">
-        <v>0.05763330434542391</v>
+        <v>0.10957674156</v>
       </c>
       <c r="R14">
-        <v>0.05763330434542391</v>
+        <v>0.6574604493599999</v>
       </c>
       <c r="S14">
-        <v>0.0009849963151163437</v>
+        <v>0.001595505378924555</v>
       </c>
       <c r="T14">
-        <v>0.0009849963151163437</v>
+        <v>0.001330666795468905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H15">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I15">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J15">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N15">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O15">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P15">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q15">
-        <v>0.1887526367076817</v>
+        <v>0.28715370684</v>
       </c>
       <c r="R15">
-        <v>0.1887526367076817</v>
+        <v>1.72292224104</v>
       </c>
       <c r="S15">
-        <v>0.003225923860121731</v>
+        <v>0.004181136227622507</v>
       </c>
       <c r="T15">
-        <v>0.003225923860121731</v>
+        <v>0.003487107733337495</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H16">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I16">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J16">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N16">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O16">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P16">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q16">
-        <v>3.869069653838147</v>
+        <v>4.195906376805</v>
       </c>
       <c r="R16">
-        <v>3.869069653838147</v>
+        <v>16.78362550722</v>
       </c>
       <c r="S16">
-        <v>0.06612529674019357</v>
+        <v>0.06109500153361029</v>
       </c>
       <c r="T16">
-        <v>0.06612529674019357</v>
+        <v>0.03396921167164185</v>
       </c>
     </row>
   </sheetData>
